--- a/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Odoo BOM.xlsx
+++ b/BR-103907-002_RevB_PCBA_Outputs/PingDevKit Odoo BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="138">
   <si>
     <t>External ID</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>component.bre_BRE_000406</t>
+  </si>
+  <si>
+    <t>component.bre_BRE_000289</t>
   </si>
   <si>
     <t>component.bre_BRE_000311</t>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2220,7 @@
         <v>70</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2240,7 +2243,7 @@
         <v>71</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2263,7 +2266,7 @@
         <v>72</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2286,7 +2289,7 @@
         <v>73</v>
       </c>
       <c r="G66">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2309,7 +2312,7 @@
         <v>74</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2332,7 +2335,7 @@
         <v>75</v>
       </c>
       <c r="G68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2355,7 +2358,7 @@
         <v>76</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2378,7 +2381,7 @@
         <v>77</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2401,7 +2404,7 @@
         <v>78</v>
       </c>
       <c r="G71">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2424,7 +2427,7 @@
         <v>79</v>
       </c>
       <c r="G72">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2447,7 +2450,7 @@
         <v>80</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2470,7 +2473,7 @@
         <v>81</v>
       </c>
       <c r="G74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2493,7 +2496,7 @@
         <v>82</v>
       </c>
       <c r="G75">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2539,7 +2542,7 @@
         <v>84</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2562,7 +2565,7 @@
         <v>85</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2585,7 +2588,7 @@
         <v>86</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2677,7 +2680,7 @@
         <v>90</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2746,7 +2749,7 @@
         <v>93</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2815,7 +2818,7 @@
         <v>96</v>
       </c>
       <c r="G89">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2861,7 +2864,7 @@
         <v>98</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2907,7 +2910,7 @@
         <v>100</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2930,7 +2933,7 @@
         <v>101</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3252,7 +3255,7 @@
         <v>115</v>
       </c>
       <c r="G108">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3275,7 +3278,7 @@
         <v>116</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3413,7 +3416,7 @@
         <v>122</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3436,7 +3439,7 @@
         <v>123</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3689,7 +3692,7 @@
         <v>134</v>
       </c>
       <c r="G127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3712,7 +3715,7 @@
         <v>135</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3735,6 +3738,29 @@
         <v>136</v>
       </c>
       <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s">
+        <v>137</v>
+      </c>
+      <c r="G130">
         <v>1</v>
       </c>
     </row>
